--- a/medicine/Enfance/Maud_Roegiers/Maud_Roegiers.xlsx
+++ b/medicine/Enfance/Maud_Roegiers/Maud_Roegiers.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Maud Roegiers, née le 18 juin 1982 à Namur, est autrice et illustratrice belge de littérature d’enfance et de jeunesse[1],[2],[3],[4]. Elle est également cofondatrice de la marque ELYSTA[1],[5],[6],[7].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Maud Roegiers, née le 18 juin 1982 à Namur, est autrice et illustratrice belge de littérature d’enfance et de jeunesse. Elle est également cofondatrice de la marque ELYSTA.
 </t>
         </is>
       </c>
@@ -511,16 +523,18 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle a vu le jour dans les Ardennes belges en 1982. Elle est initiée au dessin à l’Académie des Beaux-Arts de Marche en Famenne puis s’exerce à la peinture et la photographie au Venezuela[1],[8],[9]. À Bruxelles, elle fait des études de stylisme puis d’illustration et graphisme en cours du soir à l’Institut Saint-Luc de Bruxelles[1],[8],[9]. Là nait son premier livre pour enfants: «Lettre à Emilie» qui sera publié en 2008 par Alice jeunesse[10].
-Elle décroche un mi-temps comme styliste graphiste chez Orchestra Prémaman et continue en parallèle à écrire et illustrer des livres pour enfants[1],[8],[9].
-Elle élargit son expérience avec une formation de maquillage à effets spéciaux à Strasbourg[1],[8],[9],[11]. Elle décroche deux premiers prix au «BIFF» de Bruxelles et au «Trade Show» de Londres[1].
-Elle se fait remarquer en 2011 avec son titre «La princesse qui pète»[1],[9].
-Maman de 3 enfants, elle crée en 2017 avec son compagnon Erwan Morelle la marque de mobilier pour enfants Elysta et se met à son propre compte[5],[8].
-En 2018, Maud rencontre Mylen Vigneault via les réseaux sociaux grâce à son texte viral qui les amèneront à créer leur plus grand succès: «Le sais-tu? que tu ne dois pas tout savoir »[12],[13]. Elles poursuivront leur collaboration avec plusieurs livres : "La liste"[14],[15],[16], "les petits et les (trop) gros secrets"[17],[18],[19], "Mon chagrin à moi"[20].
-En 2022, elle collabore avec le chanteur pour enfants Guillaume Aldebert en illustrant sa chanson culte "La vie c'est quoi"[21],[22],[23],[24].
-Ses livres sont traduit en plusieurs langues: coréen, taïwanais, chinois, etc[8].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle a vu le jour dans les Ardennes belges en 1982. Elle est initiée au dessin à l’Académie des Beaux-Arts de Marche en Famenne puis s’exerce à la peinture et la photographie au Venezuela. À Bruxelles, elle fait des études de stylisme puis d’illustration et graphisme en cours du soir à l’Institut Saint-Luc de Bruxelles. Là nait son premier livre pour enfants: «Lettre à Emilie» qui sera publié en 2008 par Alice jeunesse.
+Elle décroche un mi-temps comme styliste graphiste chez Orchestra Prémaman et continue en parallèle à écrire et illustrer des livres pour enfants.
+Elle élargit son expérience avec une formation de maquillage à effets spéciaux à Strasbourg. Elle décroche deux premiers prix au «BIFF» de Bruxelles et au «Trade Show» de Londres.
+Elle se fait remarquer en 2011 avec son titre «La princesse qui pète»,.
+Maman de 3 enfants, elle crée en 2017 avec son compagnon Erwan Morelle la marque de mobilier pour enfants Elysta et se met à son propre compte,.
+En 2018, Maud rencontre Mylen Vigneault via les réseaux sociaux grâce à son texte viral qui les amèneront à créer leur plus grand succès: «Le sais-tu? que tu ne dois pas tout savoir »,. Elles poursuivront leur collaboration avec plusieurs livres : "La liste" "les petits et les (trop) gros secrets" "Mon chagrin à moi".
+En 2022, elle collabore avec le chanteur pour enfants Guillaume Aldebert en illustrant sa chanson culte "La vie c'est quoi".
+Ses livres sont traduit en plusieurs langues: coréen, taïwanais, chinois, etc.
 </t>
         </is>
       </c>
@@ -551,14 +565,53 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Texte et Illustrations
-Lettre à Emilie, Alice éditions, 2007  (ISBN 978-2-87426-075-9)
+          <t>Texte et Illustrations</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Lettre à Emilie, Alice éditions, 2007  (ISBN 978-2-87426-075-9)
 Prendre le temps, Alice éditions, 2009 (ISBN 978-2-87426-097-1)
 La princesse qui pète, Alice éditions, 2012 (ISBN 978-2-87426-182-4)
 Pourquoi tu pleures? , Alice éditions, 2015 (ISBN 978-2-87426-264-7)
-Les couleurs de demain, Alice éditions, 2023[11],[25],[26],[27] (ISBN 9782874265259)
-Illustrations
-De zachtgekookte aarde, texte de Emilie Hubert, Clavis Uitgeverij, 2010  (ISBN 978-9-04481-270-1)
+Les couleurs de demain, Alice éditions, 2023 (ISBN 9782874265259)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Maud_Roegiers</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Maud_Roegiers</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Illustrations</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>De zachtgekookte aarde, texte de Emilie Hubert, Clavis Uitgeverij, 2010  (ISBN 978-9-04481-270-1)
 Monsieur tout à l’envers, texte de Sylvain Farhi, éditions Carnet dessert de lune, 2011  (ISBN 9782930607122)
 La grande aventure, texte de Emilie Hubert, Alice éditions, 2013  (ISBN 978-2-87426-198-5)
 Respire, texte de Géraldine Carpentier, Alice éditions, 2014  (ISBN 978-2-87426-211-1)
@@ -572,41 +625,43 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>Maud_Roegiers</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Maud_Roegiers</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>PRIX DU JURY de l’Académie des beaux arts, année 95-96
 GRAND PRIX of THE 21TH BRUSSELS INTERNATIONAL FESTIVAL OF FANTASY, THRILLER &amp; SCIENCE FICTION FILMS, Défilé insolite 2003
 1er PRIX of THE 24TH BRUSSELS INTERNATIONAL FESTIVAL OF FANTASY, concours de maquillage, effets spéciaux. 2006
 1er Prix of international make-up competition trade show in london, Prosthetic Character, effets spéciaux, janvier 2007
-Lauréate d’une Bourse de la Fédération Wallonie-Bruxelles - Aide au projet, 2009[9].
-Sélection du prix mots et merveilles 2019, catégorie «petit ogre» pour l'album "Le sais-tu?"[28]
-Sélection prix Chronos 2021 pour l’album «La liste»[29]
-Sélection prix peuplier 2022 pour l’album «Les petit et les (trop) gros secrets»[30]
-Sélection prix peuplier 2023 pour l’album «Mon Chagrin à moi»[31]</t>
+Lauréate d’une Bourse de la Fédération Wallonie-Bruxelles - Aide au projet, 2009.
+Sélection du prix mots et merveilles 2019, catégorie «petit ogre» pour l'album "Le sais-tu?"
+Sélection prix Chronos 2021 pour l’album «La liste»
+Sélection prix peuplier 2022 pour l’album «Les petit et les (trop) gros secrets»
+Sélection prix peuplier 2023 pour l’album «Mon Chagrin à moi»</t>
         </is>
       </c>
     </row>
